--- a/BSWAvalue.xlsx
+++ b/BSWAvalue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20190" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6345" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RFvalue_baseSW" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="170">
   <si>
     <t>DID</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Length (Byte)</t>
   </si>
   <si>
+    <t>Programming Type</t>
+  </si>
+  <si>
     <t>BaseSW Name</t>
   </si>
   <si>
@@ -99,160 +102,436 @@
     <t>DID Check active session</t>
   </si>
   <si>
-    <t>F194</t>
+    <t>BL03_V7</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>F195</t>
+  </si>
+  <si>
+    <t>Supplier Software number</t>
+  </si>
+  <si>
+    <t>BL03V7</t>
+  </si>
+  <si>
+    <t>F180</t>
+  </si>
+  <si>
+    <t>8540009CRV01B.000</t>
+  </si>
+  <si>
+    <t>F181</t>
+  </si>
+  <si>
+    <t>8540009CRV01A.C01</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>8540009CRV0100</t>
   </si>
   <si>
     <t>F189</t>
   </si>
   <si>
-    <t>F089</t>
-  </si>
-  <si>
-    <t>F187</t>
-  </si>
-  <si>
-    <t>F188</t>
-  </si>
-  <si>
-    <t>F170</t>
-  </si>
-  <si>
-    <t>F1F4</t>
+    <t>ECUSoftwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>878HCRV000  S.C01</t>
+  </si>
+  <si>
+    <t>F17F</t>
+  </si>
+  <si>
+    <t>87HHCRV000  H.000</t>
+  </si>
+  <si>
+    <t>F1B2</t>
+  </si>
+  <si>
+    <t>8540009CRV01C.C00</t>
   </si>
   <si>
     <t>F1DE</t>
   </si>
   <si>
-    <t>Supplier Software number</t>
-  </si>
-  <si>
-    <t>ECUSoftwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>ECUHardwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Software Number</t>
-  </si>
-  <si>
-    <t>FBL Version Information</t>
-  </si>
-  <si>
-    <t>vehicle configuration</t>
-  </si>
-  <si>
-    <t>S311 BL01_RC05</t>
-  </si>
-  <si>
-    <t>SWC.7.1</t>
-  </si>
-  <si>
-    <t>HWC.2.0</t>
-  </si>
-  <si>
-    <t>7917030-CD03</t>
-  </si>
-  <si>
-    <t>9212401-CD03</t>
-  </si>
-  <si>
-    <t>V9.5</t>
-  </si>
-  <si>
-    <t>S311 BL01_RC03</t>
-  </si>
-  <si>
-    <t>SWC.6.0</t>
-  </si>
-  <si>
-    <t>V9.3</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>040004000220S00053</t>
+  </si>
+  <si>
+    <t>APPL</t>
+  </si>
+  <si>
+    <t>RBEOL</t>
+  </si>
+  <si>
+    <t>BL03V8</t>
+  </si>
+  <si>
+    <t>BL03_V8</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>Manufactory mode</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>APL and FCN</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>DTC Setting control state</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>FFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>Transportation mode</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>Reprogramming Counter</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>Reprogramming Attempt Counter</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDS Protol Version </t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>DCID</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>MTOC</t>
+  </si>
+  <si>
+    <t>3030303030303030303030303030303030</t>
+  </si>
+  <si>
+    <t>F10B</t>
+  </si>
+  <si>
+    <t>GAC Diagnostic Parameter Table Version</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>F10D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAC diagnostic Specification Version DataIdentifier </t>
+  </si>
+  <si>
+    <t>18171B</t>
+  </si>
+  <si>
+    <t>GACECUHardwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bootSoftwareIdentification </t>
+  </si>
+  <si>
+    <t>applicationSoftwareIdentificationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F184</t>
+  </si>
+  <si>
+    <t>ApplicationSoftwareFingerprintDataIdentifier</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>FF000101FFFFFFFFFFFF</t>
+  </si>
+  <si>
+    <t>F186</t>
+  </si>
+  <si>
+    <t>activeDiagnosticSessionDataIdentifier</t>
+  </si>
+  <si>
+    <t>GAC SparePartNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>GACECUSoftwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F18A</t>
+  </si>
+  <si>
+    <t>systemSupplierIdentifierDataIdentifier</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>F18C</t>
+  </si>
+  <si>
+    <t>ECUSerialNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>.{5}000101.{8}</t>
+  </si>
+  <si>
+    <t>F18E</t>
+  </si>
+  <si>
+    <t>GAC KitAssemblyPartNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F190</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>F193</t>
+  </si>
+  <si>
+    <t>systemSupplier ECU Hardware Version</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>systemNameDataIdentifier</t>
+  </si>
+  <si>
+    <t>F197</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>APPL</t>
-  </si>
-  <si>
-    <t>FBL</t>
-  </si>
-  <si>
-    <t>RBEOL</t>
-  </si>
-  <si>
-    <t>F1F0</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>APL and FCN</t>
-  </si>
-  <si>
-    <t>APL</t>
-  </si>
-  <si>
-    <t>CA_S311_BL01_RC03</t>
-  </si>
-  <si>
-    <t>CA_S311_BL01_RC05</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>F1FD</t>
-  </si>
-  <si>
-    <t>CA_S311</t>
-  </si>
-  <si>
-    <t>f1f004</t>
-  </si>
-  <si>
-    <t>f1f0</t>
-  </si>
-  <si>
-    <t>BL01_RC05</t>
-  </si>
-  <si>
-    <t>f1f010</t>
-  </si>
-  <si>
-    <t>5357432E362E31</t>
+    <t>A79-BOSCH-IFC</t>
+  </si>
+  <si>
+    <t>F199</t>
+  </si>
+  <si>
+    <t>programmingDateDataIdentifier</t>
+  </si>
+  <si>
+    <t>20000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECUCalibration SoftwareIdentification </t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Power Voltage</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>Distance between target and vehicle</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>Height of body wheel house edge</t>
+  </si>
+  <si>
+    <t>030A</t>
+  </si>
+  <si>
+    <t>Distance between targets</t>
+  </si>
+  <si>
+    <t>007E</t>
+  </si>
+  <si>
+    <t>030B</t>
+  </si>
+  <si>
+    <t>width of target squares</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>030C</t>
+  </si>
+  <si>
+    <t>Target height from ground</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>030D</t>
+  </si>
+  <si>
+    <t>Target lateral center offset</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>Calibration Status</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>mode(Calibration Mode)</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>EOL calibration parameters(Static Calibration)</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>camera dynamic parameters (Online Calibration)</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>Dynamic calibration parameters(Initial Online Calibration)</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>Rate of progress in Dynamic Calibration(%)</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>function configuration</t>
+  </si>
+  <si>
+    <t>Variant Coding</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>0E00</t>
+  </si>
+  <si>
+    <t>Transceiver mode configuration</t>
+  </si>
+  <si>
+    <t>0E01</t>
+  </si>
+  <si>
+    <t>PHY Link Status</t>
+  </si>
+  <si>
+    <t>0E02</t>
+  </si>
+  <si>
+    <t>SQI Value</t>
+  </si>
+  <si>
+    <t>0E03</t>
+  </si>
+  <si>
+    <t>PHY Mode</t>
+  </si>
+  <si>
+    <t>0E04</t>
+  </si>
+  <si>
+    <t>Link Diagnostics</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>GAC_A79 BL03V7</t>
+  </si>
+  <si>
+    <t>GAC_A79 BL03V8</t>
+  </si>
+  <si>
+    <t>FVVGACASN-410</t>
   </si>
 </sst>
 </file>
@@ -294,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -317,11 +596,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,11 +625,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,7 +942,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,82 +975,76 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
@@ -752,66 +1052,54 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="24">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"APPL, FBL, RBEOL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"APPL, FBL, RBEOL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"APPL, FBL, RBEOL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E9">
+  <dataValidations count="21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
       <formula1>"APPL, FBL, RBEOL"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E10">
@@ -883,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,85 +1210,76 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -1008,66 +1287,54 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="24">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"APPL, FBL, RBEOL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"APPL, FBL, RBEOL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"APPL, FBL, RBEOL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E9">
+  <dataValidations count="21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
       <formula1>"APPL, FBL, RBEOL"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E10">
@@ -1137,10 +1404,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,9 +1420,10 @@
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1171,424 +1442,935 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>64</v>
+      <c r="F47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
-      <formula1>"APL, FCN , APL and FCN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F25">
-      <formula1>"APL, FCN , APL and FCN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F26">
-      <formula1>"APL, FCN , APL and FCN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F27">
-      <formula1>"APL, FCN , APL and FCN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F28">
-      <formula1>"APL, FCN , APL and FCN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F29">
+  <conditionalFormatting sqref="A31:A34">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"tbd"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G5:G6">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G7:G12">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G13">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G14">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G15:G17">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G18:G20">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G21">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G22:G24">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G25:G26">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G27:G47">
+      <formula1>"APL, FCN , APL and FCN, NONE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F47">
       <formula1>"APL, FCN , APL and FCN"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1600,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,72 +2393,72 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
